--- a/Task-1.xlsx
+++ b/Task-1.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
-    <t>Linear Regrassion</t>
+    <t>Linear Regression</t>
   </si>
   <si>
     <t>x</t>
